--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT094-002 - Akuntansi - Transaksi - KIPK - Keu Kep - Cek Jurnal Cek Status Upload.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT094-002 - Akuntansi - Transaksi - KIPK - Keu Kep - Cek Jurnal Cek Status Upload.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372FCF94-9D29-4E46-927F-EEE2FCD78EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKAKT094-002" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -119,12 +118,52 @@
   </si>
   <si>
     <t>DPLKAKT094-002</t>
+  </si>
+  <si>
+    <t>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : DISK230100003,DISK230100014</t>
+  </si>
+  <si>
+    <t>19/08/2022</t>
+  </si>
+  <si>
+    <t>Cek jurnal penarikan Iuran Peserta Aktif
+- Peserta mempunyai NPWP</t>
+  </si>
+  <si>
+    <t>M12220800000089</t>
+  </si>
+  <si>
+    <t>M12220800000090</t>
+  </si>
+  <si>
+    <t>M12220800000091</t>
+  </si>
+  <si>
+    <t>M12220800000092</t>
+  </si>
+  <si>
+    <t>M12220800000093</t>
+  </si>
+  <si>
+    <t>M12220800000094</t>
+  </si>
+  <si>
+    <t>M12220800000095</t>
+  </si>
+  <si>
+    <t>M12220800000096</t>
+  </si>
+  <si>
+    <t>M12220800000097</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -194,13 +233,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,9 +644,6 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="90">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
@@ -620,15 +656,8 @@
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="str">
-        <f>"Username : "&amp;LEFT(G2,5)&amp;",
-Username : "&amp;RIGHT(G2,5)&amp;",
-Password : "&amp;H2&amp;",
-Search Dokumen ID : "&amp;N2</f>
-        <v>Username : 32660,
-Username : 32074,
-Password : bni1234,
-Search Dokumen ID : M12220800000006</v>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="2">
         <v>32660.320739999999</v>
@@ -648,17 +677,17 @@
       <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="9">
+      <c r="P2" s="7">
         <v>44774</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="7">
         <v>44774</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -670,93 +699,526 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="N3" s="5"/>
+    <row r="3" spans="1:24" ht="90">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f xml:space="preserve"> "Username : "&amp; LEFT(G3,5)&amp;",
+Username : "&amp; RIGHT(G3,5)&amp;",
+Password : "&amp;H3&amp;",
+Search Dokumen ID : "&amp;N3</f>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000089</v>
+      </c>
+      <c r="G3" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
+    <row r="4" spans="1:24" ht="90">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F11" si="0" xml:space="preserve"> "Username : "&amp; LEFT(G4,5)&amp;",
+Username : "&amp; RIGHT(G4,5)&amp;",
+Password : "&amp;H4&amp;",
+Search Dokumen ID : "&amp;N4</f>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000090</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:24">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="8"/>
-      <c r="N5" s="5"/>
+    <row r="5" spans="1:24" ht="90">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000091</v>
+      </c>
+      <c r="G5" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="P5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:24">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="N6" s="5"/>
+    <row r="6" spans="1:24" ht="90">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000092</v>
+      </c>
+      <c r="G6" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="P6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:24">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
+    <row r="7" spans="1:24" ht="90">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000093</v>
+      </c>
+      <c r="G7" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="P7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="90">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000094</v>
+      </c>
+      <c r="G8" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="90">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000095</v>
+      </c>
+      <c r="G9" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="90">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000096</v>
+      </c>
+      <c r="G10" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="90">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Username : 32074,
+Password : bni1234,
+Search Dokumen ID : M12220800000097</v>
+      </c>
+      <c r="G11" s="2">
+        <v>32660.320739999999</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT094-002 - Akuntansi - Transaksi - KIPK - Keu Kep - Cek Jurnal Cek Status Upload.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT094-002 - Akuntansi - Transaksi - KIPK - Keu Kep - Cek Jurnal Cek Status Upload.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F749820-D18A-4F9E-AF70-08B4B2D5722D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKAKT094-002" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -163,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -238,7 +239,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,12 +547,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -764,9 +763,6 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" ht="90">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
@@ -827,9 +823,6 @@
       <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:24" ht="90">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -887,9 +880,6 @@
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:24" ht="90">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -943,9 +933,6 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="90">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -999,9 +986,6 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="90">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1053,9 +1037,6 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="90">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1107,9 +1088,6 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="90">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1161,9 +1139,6 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="90">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
